--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Amelx-Cd63.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Amelx-Cd63.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,25 +79,25 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Amelx</t>
+  </si>
+  <si>
+    <t>Cd63</t>
+  </si>
+  <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
   </si>
   <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
     <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Amelx</t>
-  </si>
-  <si>
-    <t>Cd63</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,13 +528,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" t="s">
         <v>25</v>
-      </c>
-      <c r="C2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" t="s">
-        <v>27</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -549,10 +549,10 @@
         <v>3.732572</v>
       </c>
       <c r="I2">
-        <v>0.4893964936548494</v>
+        <v>0.6129717091711033</v>
       </c>
       <c r="J2">
-        <v>0.5454393745417923</v>
+        <v>0.6903247284066151</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>16.675925</v>
+        <v>35.263401</v>
       </c>
       <c r="N2">
-        <v>33.35185</v>
+        <v>70.526802</v>
       </c>
       <c r="O2">
-        <v>0.02433003445663251</v>
+        <v>0.04472416166960993</v>
       </c>
       <c r="P2">
-        <v>0.01773021928083408</v>
+        <v>0.03265591907794695</v>
       </c>
       <c r="Q2">
-        <v>20.74803024303333</v>
+        <v>43.874394399124</v>
       </c>
       <c r="R2">
-        <v>124.4881814582</v>
+        <v>263.246366394744</v>
       </c>
       <c r="S2">
-        <v>0.01190703355357762</v>
+        <v>0.02741464581986554</v>
       </c>
       <c r="T2">
-        <v>0.009670759715026967</v>
+        <v>0.02254318846835213</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -611,10 +611,10 @@
         <v>3.732572</v>
       </c>
       <c r="I3">
-        <v>0.4893964936548494</v>
+        <v>0.6129717091711033</v>
       </c>
       <c r="J3">
-        <v>0.5454393745417923</v>
+        <v>0.6903247284066151</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,16 +623,16 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>174.0937833333334</v>
+        <v>174.0937833333333</v>
       </c>
       <c r="N3">
-        <v>522.2813500000001</v>
+        <v>522.28135</v>
       </c>
       <c r="O3">
-        <v>0.2540013670717227</v>
+        <v>0.2208011221457069</v>
       </c>
       <c r="P3">
-        <v>0.2776506509171173</v>
+        <v>0.2418311481289182</v>
       </c>
       <c r="Q3">
         <v>216.6058603480222</v>
@@ -641,10 +641,10 @@
         <v>1949.4527431322</v>
       </c>
       <c r="S3">
-        <v>0.1243073784284394</v>
+        <v>0.1353448412285515</v>
       </c>
       <c r="T3">
-        <v>0.1514415973773539</v>
+        <v>0.1669420216523554</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,13 +652,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>26</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -673,10 +673,10 @@
         <v>3.732572</v>
       </c>
       <c r="I4">
-        <v>0.4893964936548494</v>
+        <v>0.6129717091711033</v>
       </c>
       <c r="J4">
-        <v>0.5454393745417923</v>
+        <v>0.6903247284066151</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>155.1466163333333</v>
+        <v>64.444654</v>
       </c>
       <c r="N4">
-        <v>465.439849</v>
+        <v>193.333962</v>
       </c>
       <c r="O4">
-        <v>0.2263576096210522</v>
+        <v>0.08173440571537822</v>
       </c>
       <c r="P4">
-        <v>0.2474330684747114</v>
+        <v>0.08951913370594729</v>
       </c>
       <c r="Q4">
-        <v>193.0319720068476</v>
+        <v>80.18143702336266</v>
       </c>
       <c r="R4">
-        <v>1737.287748061628</v>
+        <v>721.632933210264</v>
       </c>
       <c r="S4">
-        <v>0.1107786204606361</v>
+        <v>0.05010087836943979</v>
       </c>
       <c r="T4">
-        <v>0.1349597381098031</v>
+        <v>0.06179727166275352</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,13 +714,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -735,10 +735,10 @@
         <v>3.732572</v>
       </c>
       <c r="I5">
-        <v>0.4893964936548494</v>
+        <v>0.6129717091711033</v>
       </c>
       <c r="J5">
-        <v>0.5454393745417923</v>
+        <v>0.6903247284066151</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>158.4650495</v>
+        <v>170.4349515</v>
       </c>
       <c r="N5">
-        <v>316.930099</v>
+        <v>340.869903</v>
       </c>
       <c r="O5">
-        <v>0.2311991757283016</v>
+        <v>0.216160668253131</v>
       </c>
       <c r="P5">
-        <v>0.1684836119125762</v>
+        <v>0.1578324786153727</v>
       </c>
       <c r="Q5">
-        <v>197.1607355807714</v>
+        <v>212.053575930086</v>
       </c>
       <c r="R5">
-        <v>1182.964413484628</v>
+        <v>1272.321455580516</v>
       </c>
       <c r="S5">
-        <v>0.1131480659373222</v>
+        <v>0.1325003742746896</v>
       </c>
       <c r="T5">
-        <v>0.09189759590213764</v>
+        <v>0.1089556629339001</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,13 +776,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -797,10 +797,10 @@
         <v>3.732572</v>
       </c>
       <c r="I6">
-        <v>0.4893964936548494</v>
+        <v>0.6129717091711033</v>
       </c>
       <c r="J6">
-        <v>0.5454393745417923</v>
+        <v>0.6903247284066151</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>14.709034</v>
+        <v>182.8720983333334</v>
       </c>
       <c r="N6">
-        <v>44.127102</v>
+        <v>548.616295</v>
       </c>
       <c r="O6">
-        <v>0.02146035701430531</v>
+        <v>0.2319345570417557</v>
       </c>
       <c r="P6">
-        <v>0.02345846466351139</v>
+        <v>0.2540249781120527</v>
       </c>
       <c r="Q6">
-        <v>18.30084281848267</v>
+        <v>227.5277579400822</v>
       </c>
       <c r="R6">
-        <v>164.707585366344</v>
+        <v>2047.74982146074</v>
       </c>
       <c r="S6">
-        <v>0.01050262347538227</v>
+        <v>0.1421693218457278</v>
       </c>
       <c r="T6">
-        <v>0.01279517029377639</v>
+        <v>0.1753597240236991</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,13 +838,13 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -859,10 +859,10 @@
         <v>3.732572</v>
       </c>
       <c r="I7">
-        <v>0.4893964936548494</v>
+        <v>0.6129717091711033</v>
       </c>
       <c r="J7">
-        <v>0.5454393745417923</v>
+        <v>0.6903247284066151</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>166.3144986666667</v>
+        <v>161.3553263333333</v>
       </c>
       <c r="N7">
-        <v>498.943496</v>
+        <v>484.065979</v>
       </c>
       <c r="O7">
-        <v>0.2426514561079857</v>
+        <v>0.2046450851744183</v>
       </c>
       <c r="P7">
-        <v>0.2652439847512496</v>
+        <v>0.2241363423597623</v>
       </c>
       <c r="Q7">
-        <v>206.9269469724124</v>
+        <v>200.7567910408875</v>
       </c>
       <c r="R7">
-        <v>1862.342522751712</v>
+        <v>1806.811119367988</v>
       </c>
       <c r="S7">
-        <v>0.1187527717994918</v>
+        <v>0.1254416476328292</v>
       </c>
       <c r="T7">
-        <v>0.1446745131436943</v>
+        <v>0.154726859665555</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,31 +900,31 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
         <v>25</v>
       </c>
-      <c r="C8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" t="s">
-        <v>27</v>
-      </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.247732</v>
+        <v>0.6823255</v>
       </c>
       <c r="H8">
-        <v>0.743196</v>
+        <v>1.364651</v>
       </c>
       <c r="I8">
-        <v>0.09744420643414499</v>
+        <v>0.3361592713651828</v>
       </c>
       <c r="J8">
-        <v>0.1086029583359576</v>
+        <v>0.2523869146917503</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>16.675925</v>
+        <v>35.263401</v>
       </c>
       <c r="N8">
-        <v>33.35185</v>
+        <v>70.526802</v>
       </c>
       <c r="O8">
-        <v>0.02433003445663251</v>
+        <v>0.04472416166960993</v>
       </c>
       <c r="P8">
-        <v>0.01773021928083408</v>
+        <v>0.03265591907794695</v>
       </c>
       <c r="Q8">
-        <v>4.1311602521</v>
+        <v>24.0611177190255</v>
       </c>
       <c r="R8">
-        <v>24.7869615126</v>
+        <v>96.24447087610201</v>
       </c>
       <c r="S8">
-        <v>0.002370820900141959</v>
+        <v>0.01503444159927471</v>
       </c>
       <c r="T8">
-        <v>0.001925554265843816</v>
+        <v>0.008241926662506496</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,31 +962,31 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
         <v>20</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.247732</v>
+        <v>0.6823255</v>
       </c>
       <c r="H9">
-        <v>0.743196</v>
+        <v>1.364651</v>
       </c>
       <c r="I9">
-        <v>0.09744420643414499</v>
+        <v>0.3361592713651828</v>
       </c>
       <c r="J9">
-        <v>0.1086029583359576</v>
+        <v>0.2523869146917503</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,28 +995,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>174.0937833333334</v>
+        <v>174.0937833333333</v>
       </c>
       <c r="N9">
-        <v>522.2813500000001</v>
+        <v>522.28135</v>
       </c>
       <c r="O9">
-        <v>0.2540013670717227</v>
+        <v>0.2208011221457069</v>
       </c>
       <c r="P9">
-        <v>0.2776506509171173</v>
+        <v>0.2418311481289182</v>
       </c>
       <c r="Q9">
-        <v>43.12860113273334</v>
+        <v>118.7886277598083</v>
       </c>
       <c r="R9">
-        <v>388.1574101946001</v>
+        <v>712.73176655885</v>
       </c>
       <c r="S9">
-        <v>0.02475096164749198</v>
+        <v>0.07422434433711556</v>
       </c>
       <c r="T9">
-        <v>0.03015368207350318</v>
+        <v>0.06103501735262131</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,31 +1024,31 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
         <v>26</v>
       </c>
-      <c r="D10" t="s">
-        <v>21</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.247732</v>
+        <v>0.6823255</v>
       </c>
       <c r="H10">
-        <v>0.743196</v>
+        <v>1.364651</v>
       </c>
       <c r="I10">
-        <v>0.09744420643414499</v>
+        <v>0.3361592713651828</v>
       </c>
       <c r="J10">
-        <v>0.1086029583359576</v>
+        <v>0.2523869146917503</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>155.1466163333333</v>
+        <v>64.444654</v>
       </c>
       <c r="N10">
-        <v>465.439849</v>
+        <v>193.333962</v>
       </c>
       <c r="O10">
-        <v>0.2263576096210522</v>
+        <v>0.08173440571537822</v>
       </c>
       <c r="P10">
-        <v>0.2474330684747114</v>
+        <v>0.08951913370594729</v>
       </c>
       <c r="Q10">
-        <v>38.43478155748933</v>
+        <v>43.972230762877</v>
       </c>
       <c r="R10">
-        <v>345.913034017404</v>
+        <v>263.8333845772621</v>
       </c>
       <c r="S10">
-        <v>0.02205723763985341</v>
+        <v>0.02747577827074778</v>
       </c>
       <c r="T10">
-        <v>0.02687196322649722</v>
+        <v>0.02259345796192231</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,31 +1086,31 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.247732</v>
+        <v>0.6823255</v>
       </c>
       <c r="H11">
-        <v>0.743196</v>
+        <v>1.364651</v>
       </c>
       <c r="I11">
-        <v>0.09744420643414499</v>
+        <v>0.3361592713651828</v>
       </c>
       <c r="J11">
-        <v>0.1086029583359576</v>
+        <v>0.2523869146917503</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>158.4650495</v>
+        <v>170.4349515</v>
       </c>
       <c r="N11">
-        <v>316.930099</v>
+        <v>340.869903</v>
       </c>
       <c r="O11">
-        <v>0.2311991757283016</v>
+        <v>0.216160668253131</v>
       </c>
       <c r="P11">
-        <v>0.1684836119125762</v>
+        <v>0.1578324786153727</v>
       </c>
       <c r="Q11">
-        <v>39.256863642734</v>
+        <v>116.2921134997133</v>
       </c>
       <c r="R11">
-        <v>235.541181856404</v>
+        <v>465.1684539988531</v>
       </c>
       <c r="S11">
-        <v>0.02252902020707278</v>
+        <v>0.07266441273778351</v>
       </c>
       <c r="T11">
-        <v>0.01829781868483316</v>
+        <v>0.03983485231588558</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,31 +1148,31 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.247732</v>
+        <v>0.6823255</v>
       </c>
       <c r="H12">
-        <v>0.743196</v>
+        <v>1.364651</v>
       </c>
       <c r="I12">
-        <v>0.09744420643414499</v>
+        <v>0.3361592713651828</v>
       </c>
       <c r="J12">
-        <v>0.1086029583359576</v>
+        <v>0.2523869146917503</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>14.709034</v>
+        <v>182.8720983333334</v>
       </c>
       <c r="N12">
-        <v>44.127102</v>
+        <v>548.616295</v>
       </c>
       <c r="O12">
-        <v>0.02146035701430531</v>
+        <v>0.2319345570417557</v>
       </c>
       <c r="P12">
-        <v>0.02345846466351139</v>
+        <v>0.2540249781120527</v>
       </c>
       <c r="Q12">
-        <v>3.643898410888</v>
+        <v>124.7782959313408</v>
       </c>
       <c r="R12">
-        <v>32.795085697992</v>
+        <v>748.6697755880451</v>
       </c>
       <c r="S12">
-        <v>0.002091187459052418</v>
+        <v>0.07796695169956303</v>
       </c>
       <c r="T12">
-        <v>0.00254765866047686</v>
+        <v>0.06411258048034037</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,31 +1210,31 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.247732</v>
+        <v>0.6823255</v>
       </c>
       <c r="H13">
-        <v>0.743196</v>
+        <v>1.364651</v>
       </c>
       <c r="I13">
-        <v>0.09744420643414499</v>
+        <v>0.3361592713651828</v>
       </c>
       <c r="J13">
-        <v>0.1086029583359576</v>
+        <v>0.2523869146917503</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>166.3144986666667</v>
+        <v>161.3553263333333</v>
       </c>
       <c r="N13">
-        <v>498.943496</v>
+        <v>484.065979</v>
       </c>
       <c r="O13">
-        <v>0.2426514561079857</v>
+        <v>0.2046450851744183</v>
       </c>
       <c r="P13">
-        <v>0.2652439847512496</v>
+        <v>0.2241363423597623</v>
       </c>
       <c r="Q13">
-        <v>41.20142338369066</v>
+        <v>110.0968537180548</v>
       </c>
       <c r="R13">
-        <v>370.8128104532159</v>
+        <v>660.581122308329</v>
       </c>
       <c r="S13">
-        <v>0.02364497858053244</v>
+        <v>0.06879334272069823</v>
       </c>
       <c r="T13">
-        <v>0.02880628142480332</v>
+        <v>0.05656907991847426</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,31 +1272,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
         <v>25</v>
       </c>
-      <c r="C14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" t="s">
-        <v>27</v>
-      </c>
       <c r="E14">
         <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.7836485</v>
+        <v>0.1032523333333333</v>
       </c>
       <c r="H14">
-        <v>1.567297</v>
+        <v>0.309757</v>
       </c>
       <c r="I14">
-        <v>0.3082444181850066</v>
+        <v>0.05086901946371389</v>
       </c>
       <c r="J14">
-        <v>0.2290285345872035</v>
+        <v>0.05728835690163456</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>16.675925</v>
+        <v>35.263401</v>
       </c>
       <c r="N14">
-        <v>33.35185</v>
+        <v>70.526802</v>
       </c>
       <c r="O14">
-        <v>0.02433003445663251</v>
+        <v>0.04472416166960993</v>
       </c>
       <c r="P14">
-        <v>0.01773021928083408</v>
+        <v>0.03265591907794695</v>
       </c>
       <c r="Q14">
-        <v>13.0680636123625</v>
+        <v>3.641028434519</v>
       </c>
       <c r="R14">
-        <v>52.27225444945</v>
+        <v>21.846170607114</v>
       </c>
       <c r="S14">
-        <v>0.007499597315505853</v>
+        <v>0.002275074250469674</v>
       </c>
       <c r="T14">
-        <v>0.004060726139799211</v>
+        <v>0.001870803947088321</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D15" t="s">
         <v>20</v>
@@ -1346,19 +1346,19 @@
         <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.7836485</v>
+        <v>0.1032523333333333</v>
       </c>
       <c r="H15">
-        <v>1.567297</v>
+        <v>0.309757</v>
       </c>
       <c r="I15">
-        <v>0.3082444181850066</v>
+        <v>0.05086901946371389</v>
       </c>
       <c r="J15">
-        <v>0.2290285345872035</v>
+        <v>0.05728835690163456</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,28 +1367,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>174.0937833333334</v>
+        <v>174.0937833333333</v>
       </c>
       <c r="N15">
-        <v>522.2813500000001</v>
+        <v>522.28135</v>
       </c>
       <c r="O15">
-        <v>0.2540013670717227</v>
+        <v>0.2208011221457069</v>
       </c>
       <c r="P15">
-        <v>0.2776506509171173</v>
+        <v>0.2418311481289182</v>
       </c>
       <c r="Q15">
-        <v>136.4283321684917</v>
+        <v>17.97558934799444</v>
       </c>
       <c r="R15">
-        <v>818.5699930109502</v>
+        <v>161.78030413195</v>
       </c>
       <c r="S15">
-        <v>0.07829450361121945</v>
+        <v>0.01123193658003983</v>
       </c>
       <c r="T15">
-        <v>0.06358992170673056</v>
+        <v>0.01385410912394152</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,31 +1396,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
         <v>26</v>
       </c>
-      <c r="D16" t="s">
-        <v>21</v>
-      </c>
       <c r="E16">
         <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.7836485</v>
+        <v>0.1032523333333333</v>
       </c>
       <c r="H16">
-        <v>1.567297</v>
+        <v>0.309757</v>
       </c>
       <c r="I16">
-        <v>0.3082444181850066</v>
+        <v>0.05086901946371389</v>
       </c>
       <c r="J16">
-        <v>0.2290285345872035</v>
+        <v>0.05728835690163456</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>155.1466163333333</v>
+        <v>64.444654</v>
       </c>
       <c r="N16">
-        <v>465.439849</v>
+        <v>193.333962</v>
       </c>
       <c r="O16">
-        <v>0.2263576096210522</v>
+        <v>0.08173440571537822</v>
       </c>
       <c r="P16">
-        <v>0.2474330684747114</v>
+        <v>0.08951913370594729</v>
       </c>
       <c r="Q16">
-        <v>121.5804131696922</v>
+        <v>6.654060896359334</v>
       </c>
       <c r="R16">
-        <v>729.482479018153</v>
+        <v>59.886548067234</v>
       </c>
       <c r="S16">
-        <v>0.06977346967939009</v>
+        <v>0.004157749075190662</v>
       </c>
       <c r="T16">
-        <v>0.05666923308117834</v>
+        <v>0.005128404081271452</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,31 +1458,31 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E17">
         <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.7836485</v>
+        <v>0.1032523333333333</v>
       </c>
       <c r="H17">
-        <v>1.567297</v>
+        <v>0.309757</v>
       </c>
       <c r="I17">
-        <v>0.3082444181850066</v>
+        <v>0.05086901946371389</v>
       </c>
       <c r="J17">
-        <v>0.2290285345872035</v>
+        <v>0.05728835690163456</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>158.4650495</v>
+        <v>170.4349515</v>
       </c>
       <c r="N17">
-        <v>316.930099</v>
+        <v>340.869903</v>
       </c>
       <c r="O17">
-        <v>0.2311991757283016</v>
+        <v>0.216160668253131</v>
       </c>
       <c r="P17">
-        <v>0.1684836119125762</v>
+        <v>0.1578324786153727</v>
       </c>
       <c r="Q17">
-        <v>124.1808983431008</v>
+        <v>17.5978064239285</v>
       </c>
       <c r="R17">
-        <v>496.7235933724031</v>
+        <v>105.586838543571</v>
       </c>
       <c r="S17">
-        <v>0.07126585540722344</v>
+        <v>0.01099588124065792</v>
       </c>
       <c r="T17">
-        <v>0.03858755473829643</v>
+        <v>0.009041963365587076</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,31 +1520,31 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E18">
         <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.7836485</v>
+        <v>0.1032523333333333</v>
       </c>
       <c r="H18">
-        <v>1.567297</v>
+        <v>0.309757</v>
       </c>
       <c r="I18">
-        <v>0.3082444181850066</v>
+        <v>0.05086901946371389</v>
       </c>
       <c r="J18">
-        <v>0.2290285345872035</v>
+        <v>0.05728835690163456</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>14.709034</v>
+        <v>182.8720983333334</v>
       </c>
       <c r="N18">
-        <v>44.127102</v>
+        <v>548.616295</v>
       </c>
       <c r="O18">
-        <v>0.02146035701430531</v>
+        <v>0.2319345570417557</v>
       </c>
       <c r="P18">
-        <v>0.02345846466351139</v>
+        <v>0.2540249781120527</v>
       </c>
       <c r="Q18">
-        <v>11.526712430549</v>
+        <v>18.88197085447945</v>
       </c>
       <c r="R18">
-        <v>69.160274583294</v>
+        <v>169.937737690315</v>
       </c>
       <c r="S18">
-        <v>0.006615035261917065</v>
+        <v>0.01179828349646493</v>
       </c>
       <c r="T18">
-        <v>0.005372657785549709</v>
+        <v>0.01455267360801318</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,31 +1582,31 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D19" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E19">
         <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.7836485</v>
+        <v>0.1032523333333333</v>
       </c>
       <c r="H19">
-        <v>1.567297</v>
+        <v>0.309757</v>
       </c>
       <c r="I19">
-        <v>0.3082444181850066</v>
+        <v>0.05086901946371389</v>
       </c>
       <c r="J19">
-        <v>0.2290285345872035</v>
+        <v>0.05728835690163456</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,772 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>166.3144986666667</v>
+        <v>161.3553263333333</v>
       </c>
       <c r="N19">
-        <v>498.943496</v>
+        <v>484.065979</v>
       </c>
       <c r="O19">
-        <v>0.2426514561079857</v>
+        <v>0.2046450851744183</v>
       </c>
       <c r="P19">
-        <v>0.2652439847512496</v>
+        <v>0.2241363423597623</v>
       </c>
       <c r="Q19">
-        <v>130.3321074083853</v>
+        <v>16.66031393967811</v>
       </c>
       <c r="R19">
-        <v>781.9926444503119</v>
+        <v>149.942825457103</v>
       </c>
       <c r="S19">
-        <v>0.07479595690975074</v>
+        <v>0.01041009482089087</v>
       </c>
       <c r="T19">
-        <v>0.06074844113564924</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" t="s">
-        <v>27</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-      <c r="F20">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G20">
-        <v>0.04979866666666666</v>
-      </c>
-      <c r="H20">
-        <v>0.149396</v>
-      </c>
-      <c r="I20">
-        <v>0.0195880691828744</v>
-      </c>
-      <c r="J20">
-        <v>0.02183118257304765</v>
-      </c>
-      <c r="K20">
-        <v>2</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>16.675925</v>
-      </c>
-      <c r="N20">
-        <v>33.35185</v>
-      </c>
-      <c r="O20">
-        <v>0.02433003445663251</v>
-      </c>
-      <c r="P20">
-        <v>0.01773021928083408</v>
-      </c>
-      <c r="Q20">
-        <v>0.8304388304333332</v>
-      </c>
-      <c r="R20">
-        <v>4.9826329826</v>
-      </c>
-      <c r="S20">
-        <v>0.0004765783981582357</v>
-      </c>
-      <c r="T20">
-        <v>0.0003870716541800584</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" t="s">
-        <v>20</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G21">
-        <v>0.04979866666666666</v>
-      </c>
-      <c r="H21">
-        <v>0.149396</v>
-      </c>
-      <c r="I21">
-        <v>0.0195880691828744</v>
-      </c>
-      <c r="J21">
-        <v>0.02183118257304765</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>174.0937833333334</v>
-      </c>
-      <c r="N21">
-        <v>522.2813500000001</v>
-      </c>
-      <c r="O21">
-        <v>0.2540013670717227</v>
-      </c>
-      <c r="P21">
-        <v>0.2776506509171173</v>
-      </c>
-      <c r="Q21">
-        <v>8.669638284955557</v>
-      </c>
-      <c r="R21">
-        <v>78.02674456460001</v>
-      </c>
-      <c r="S21">
-        <v>0.00497539635074558</v>
-      </c>
-      <c r="T21">
-        <v>0.006061442051697106</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" t="s">
-        <v>21</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="F22">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G22">
-        <v>0.04979866666666666</v>
-      </c>
-      <c r="H22">
-        <v>0.149396</v>
-      </c>
-      <c r="I22">
-        <v>0.0195880691828744</v>
-      </c>
-      <c r="J22">
-        <v>0.02183118257304765</v>
-      </c>
-      <c r="K22">
-        <v>3</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>155.1466163333333</v>
-      </c>
-      <c r="N22">
-        <v>465.439849</v>
-      </c>
-      <c r="O22">
-        <v>0.2263576096210522</v>
-      </c>
-      <c r="P22">
-        <v>0.2474330684747114</v>
-      </c>
-      <c r="Q22">
-        <v>7.726094631244888</v>
-      </c>
-      <c r="R22">
-        <v>69.534851681204</v>
-      </c>
-      <c r="S22">
-        <v>0.004433908517327247</v>
-      </c>
-      <c r="T22">
-        <v>0.005401756492480825</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" t="s">
-        <v>22</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-      <c r="F23">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G23">
-        <v>0.04979866666666666</v>
-      </c>
-      <c r="H23">
-        <v>0.149396</v>
-      </c>
-      <c r="I23">
-        <v>0.0195880691828744</v>
-      </c>
-      <c r="J23">
-        <v>0.02183118257304765</v>
-      </c>
-      <c r="K23">
-        <v>2</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>158.4650495</v>
-      </c>
-      <c r="N23">
-        <v>316.930099</v>
-      </c>
-      <c r="O23">
-        <v>0.2311991757283016</v>
-      </c>
-      <c r="P23">
-        <v>0.1684836119125762</v>
-      </c>
-      <c r="Q23">
-        <v>7.891348178367334</v>
-      </c>
-      <c r="R23">
-        <v>47.348089070204</v>
-      </c>
-      <c r="S23">
-        <v>0.004528745449189508</v>
-      </c>
-      <c r="T23">
-        <v>0.003678196492229957</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" t="s">
-        <v>23</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-      <c r="F24">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G24">
-        <v>0.04979866666666666</v>
-      </c>
-      <c r="H24">
-        <v>0.149396</v>
-      </c>
-      <c r="I24">
-        <v>0.0195880691828744</v>
-      </c>
-      <c r="J24">
-        <v>0.02183118257304765</v>
-      </c>
-      <c r="K24">
-        <v>3</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24">
-        <v>14.709034</v>
-      </c>
-      <c r="N24">
-        <v>44.127102</v>
-      </c>
-      <c r="O24">
-        <v>0.02146035701430531</v>
-      </c>
-      <c r="P24">
-        <v>0.02345846466351139</v>
-      </c>
-      <c r="Q24">
-        <v>0.7324902811546666</v>
-      </c>
-      <c r="R24">
-        <v>6.592412530392</v>
-      </c>
-      <c r="S24">
-        <v>0.0004203669578853963</v>
-      </c>
-      <c r="T24">
-        <v>0.0005121260249525038</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>24</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G25">
-        <v>0.04979866666666666</v>
-      </c>
-      <c r="H25">
-        <v>0.149396</v>
-      </c>
-      <c r="I25">
-        <v>0.0195880691828744</v>
-      </c>
-      <c r="J25">
-        <v>0.02183118257304765</v>
-      </c>
-      <c r="K25">
-        <v>3</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>166.3144986666667</v>
-      </c>
-      <c r="N25">
-        <v>498.943496</v>
-      </c>
-      <c r="O25">
-        <v>0.2426514561079857</v>
-      </c>
-      <c r="P25">
-        <v>0.2652439847512496</v>
-      </c>
-      <c r="Q25">
-        <v>8.28224028093511</v>
-      </c>
-      <c r="R25">
-        <v>74.540162528416</v>
-      </c>
-      <c r="S25">
-        <v>0.004753073509568436</v>
-      </c>
-      <c r="T25">
-        <v>0.005790589857507196</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>27</v>
-      </c>
-      <c r="E26">
-        <v>2</v>
-      </c>
-      <c r="F26">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G26">
-        <v>0.216926</v>
-      </c>
-      <c r="H26">
-        <v>0.650778</v>
-      </c>
-      <c r="I26">
-        <v>0.08532681254312456</v>
-      </c>
-      <c r="J26">
-        <v>0.09509794996199898</v>
-      </c>
-      <c r="K26">
-        <v>2</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>16.675925</v>
-      </c>
-      <c r="N26">
-        <v>33.35185</v>
-      </c>
-      <c r="O26">
-        <v>0.02433003445663251</v>
-      </c>
-      <c r="P26">
-        <v>0.01773021928083408</v>
-      </c>
-      <c r="Q26">
-        <v>3.61744170655</v>
-      </c>
-      <c r="R26">
-        <v>21.7046502393</v>
-      </c>
-      <c r="S26">
-        <v>0.002076004289248844</v>
-      </c>
-      <c r="T26">
-        <v>0.001686107505984029</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20">
-      <c r="A27" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27" t="s">
-        <v>26</v>
-      </c>
-      <c r="D27" t="s">
-        <v>20</v>
-      </c>
-      <c r="E27">
-        <v>2</v>
-      </c>
-      <c r="F27">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G27">
-        <v>0.216926</v>
-      </c>
-      <c r="H27">
-        <v>0.650778</v>
-      </c>
-      <c r="I27">
-        <v>0.08532681254312456</v>
-      </c>
-      <c r="J27">
-        <v>0.09509794996199898</v>
-      </c>
-      <c r="K27">
-        <v>3</v>
-      </c>
-      <c r="L27">
-        <v>1</v>
-      </c>
-      <c r="M27">
-        <v>174.0937833333334</v>
-      </c>
-      <c r="N27">
-        <v>522.2813500000001</v>
-      </c>
-      <c r="O27">
-        <v>0.2540013670717227</v>
-      </c>
-      <c r="P27">
-        <v>0.2776506509171173</v>
-      </c>
-      <c r="Q27">
-        <v>37.76546804336667</v>
-      </c>
-      <c r="R27">
-        <v>339.8892123903</v>
-      </c>
-      <c r="S27">
-        <v>0.02167312703382625</v>
-      </c>
-      <c r="T27">
-        <v>0.02640400770783247</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20">
-      <c r="A28" t="s">
-        <v>24</v>
-      </c>
-      <c r="B28" t="s">
-        <v>25</v>
-      </c>
-      <c r="C28" t="s">
-        <v>26</v>
-      </c>
-      <c r="D28" t="s">
-        <v>21</v>
-      </c>
-      <c r="E28">
-        <v>2</v>
-      </c>
-      <c r="F28">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G28">
-        <v>0.216926</v>
-      </c>
-      <c r="H28">
-        <v>0.650778</v>
-      </c>
-      <c r="I28">
-        <v>0.08532681254312456</v>
-      </c>
-      <c r="J28">
-        <v>0.09509794996199898</v>
-      </c>
-      <c r="K28">
-        <v>3</v>
-      </c>
-      <c r="L28">
-        <v>1</v>
-      </c>
-      <c r="M28">
-        <v>155.1466163333333</v>
-      </c>
-      <c r="N28">
-        <v>465.439849</v>
-      </c>
-      <c r="O28">
-        <v>0.2263576096210522</v>
-      </c>
-      <c r="P28">
-        <v>0.2474330684747114</v>
-      </c>
-      <c r="Q28">
-        <v>33.65533489472466</v>
-      </c>
-      <c r="R28">
-        <v>302.898014052522</v>
-      </c>
-      <c r="S28">
-        <v>0.01931437332384529</v>
-      </c>
-      <c r="T28">
-        <v>0.02353037756475198</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20">
-      <c r="A29" t="s">
-        <v>24</v>
-      </c>
-      <c r="B29" t="s">
-        <v>25</v>
-      </c>
-      <c r="C29" t="s">
-        <v>26</v>
-      </c>
-      <c r="D29" t="s">
-        <v>22</v>
-      </c>
-      <c r="E29">
-        <v>2</v>
-      </c>
-      <c r="F29">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G29">
-        <v>0.216926</v>
-      </c>
-      <c r="H29">
-        <v>0.650778</v>
-      </c>
-      <c r="I29">
-        <v>0.08532681254312456</v>
-      </c>
-      <c r="J29">
-        <v>0.09509794996199898</v>
-      </c>
-      <c r="K29">
-        <v>2</v>
-      </c>
-      <c r="L29">
-        <v>1</v>
-      </c>
-      <c r="M29">
-        <v>158.4650495</v>
-      </c>
-      <c r="N29">
-        <v>316.930099</v>
-      </c>
-      <c r="O29">
-        <v>0.2311991757283016</v>
-      </c>
-      <c r="P29">
-        <v>0.1684836119125762</v>
-      </c>
-      <c r="Q29">
-        <v>34.375189327837</v>
-      </c>
-      <c r="R29">
-        <v>206.251135967022</v>
-      </c>
-      <c r="S29">
-        <v>0.01972748872749371</v>
-      </c>
-      <c r="T29">
-        <v>0.01602244609507903</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20">
-      <c r="A30" t="s">
-        <v>24</v>
-      </c>
-      <c r="B30" t="s">
-        <v>25</v>
-      </c>
-      <c r="C30" t="s">
-        <v>26</v>
-      </c>
-      <c r="D30" t="s">
-        <v>23</v>
-      </c>
-      <c r="E30">
-        <v>2</v>
-      </c>
-      <c r="F30">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G30">
-        <v>0.216926</v>
-      </c>
-      <c r="H30">
-        <v>0.650778</v>
-      </c>
-      <c r="I30">
-        <v>0.08532681254312456</v>
-      </c>
-      <c r="J30">
-        <v>0.09509794996199898</v>
-      </c>
-      <c r="K30">
-        <v>3</v>
-      </c>
-      <c r="L30">
-        <v>1</v>
-      </c>
-      <c r="M30">
-        <v>14.709034</v>
-      </c>
-      <c r="N30">
-        <v>44.127102</v>
-      </c>
-      <c r="O30">
-        <v>0.02146035701430531</v>
-      </c>
-      <c r="P30">
-        <v>0.02345846466351139</v>
-      </c>
-      <c r="Q30">
-        <v>3.190771909484</v>
-      </c>
-      <c r="R30">
-        <v>28.716947185356</v>
-      </c>
-      <c r="S30">
-        <v>0.001831143860068157</v>
-      </c>
-      <c r="T30">
-        <v>0.002230851898755928</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20">
-      <c r="A31" t="s">
-        <v>24</v>
-      </c>
-      <c r="B31" t="s">
-        <v>25</v>
-      </c>
-      <c r="C31" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" t="s">
-        <v>24</v>
-      </c>
-      <c r="E31">
-        <v>2</v>
-      </c>
-      <c r="F31">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G31">
-        <v>0.216926</v>
-      </c>
-      <c r="H31">
-        <v>0.650778</v>
-      </c>
-      <c r="I31">
-        <v>0.08532681254312456</v>
-      </c>
-      <c r="J31">
-        <v>0.09509794996199898</v>
-      </c>
-      <c r="K31">
-        <v>3</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <v>166.3144986666667</v>
-      </c>
-      <c r="N31">
-        <v>498.943496</v>
-      </c>
-      <c r="O31">
-        <v>0.2426514561079857</v>
-      </c>
-      <c r="P31">
-        <v>0.2652439847512496</v>
-      </c>
-      <c r="Q31">
-        <v>36.07793893776532</v>
-      </c>
-      <c r="R31">
-        <v>324.701450439888</v>
-      </c>
-      <c r="S31">
-        <v>0.02070467530864232</v>
-      </c>
-      <c r="T31">
-        <v>0.02522415918959556</v>
+        <v>0.01284040277573301</v>
       </c>
     </row>
   </sheetData>
